--- a/Code/Results/Cases/Case_5_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_174/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.069509956242655</v>
+        <v>0.6707215716073449</v>
       </c>
       <c r="C2">
-        <v>0.4634666333042219</v>
+        <v>0.1579930342821001</v>
       </c>
       <c r="D2">
-        <v>0.03177258665974847</v>
+        <v>0.01294316665145345</v>
       </c>
       <c r="E2">
-        <v>0.2282035592421607</v>
+        <v>0.1264417977370229</v>
       </c>
       <c r="F2">
-        <v>0.5778034741914766</v>
+        <v>0.5538072680917523</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8869464515185683</v>
+        <v>0.3099252839110775</v>
       </c>
       <c r="N2">
-        <v>0.5486211300581303</v>
+        <v>0.9722120263364573</v>
       </c>
       <c r="O2">
-        <v>1.623366533136135</v>
+        <v>1.797013954961699</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.799209899029023</v>
+        <v>0.5892113537391026</v>
       </c>
       <c r="C3">
-        <v>0.4098291729382879</v>
+        <v>0.1408492153979353</v>
       </c>
       <c r="D3">
-        <v>0.02841033232216716</v>
+        <v>0.01180183988952876</v>
       </c>
       <c r="E3">
-        <v>0.199167661074668</v>
+        <v>0.1199290195624414</v>
       </c>
       <c r="F3">
-        <v>0.5204705791923558</v>
+        <v>0.5440222806960406</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7675938786252487</v>
+        <v>0.2762130393736228</v>
       </c>
       <c r="N3">
-        <v>0.5766292956862173</v>
+        <v>0.9838772478455269</v>
       </c>
       <c r="O3">
-        <v>1.480729871248059</v>
+        <v>1.77823950383555</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.633627688747623</v>
+        <v>0.5391197371740475</v>
       </c>
       <c r="C4">
-        <v>0.3768875490001165</v>
+        <v>0.1302612413019233</v>
       </c>
       <c r="D4">
-        <v>0.0263397436417705</v>
+        <v>0.01109670045017097</v>
       </c>
       <c r="E4">
-        <v>0.1818157130093851</v>
+        <v>0.1160393710671315</v>
       </c>
       <c r="F4">
-        <v>0.4864683258750802</v>
+        <v>0.5384551950288596</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6948924769857285</v>
+        <v>0.2555826412098341</v>
       </c>
       <c r="N4">
-        <v>0.5948582257782142</v>
+        <v>0.9914898772992551</v>
       </c>
       <c r="O4">
-        <v>1.39705492350393</v>
+        <v>1.768167780096036</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.566218713475052</v>
+        <v>0.5186967731642085</v>
       </c>
       <c r="C5">
-        <v>0.3634567328120681</v>
+        <v>0.1259312547789762</v>
       </c>
       <c r="D5">
-        <v>0.02549429433213746</v>
+        <v>0.01080827466421042</v>
       </c>
       <c r="E5">
-        <v>0.1748518158624748</v>
+        <v>0.11448151404214</v>
       </c>
       <c r="F5">
-        <v>0.4728905805772072</v>
+        <v>0.5362971772272331</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6653894650096603</v>
+        <v>0.247192905060615</v>
       </c>
       <c r="N5">
-        <v>0.6025371797662977</v>
+        <v>0.994705237091658</v>
       </c>
       <c r="O5">
-        <v>1.363865589555189</v>
+        <v>1.764428586231787</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.555028739127522</v>
+        <v>0.5153049630227997</v>
       </c>
       <c r="C6">
-        <v>0.3612260084709646</v>
+        <v>0.1252113452448214</v>
       </c>
       <c r="D6">
-        <v>0.02535380408485466</v>
+        <v>0.01076031742006123</v>
       </c>
       <c r="E6">
-        <v>0.173701585611802</v>
+        <v>0.1142244687086773</v>
       </c>
       <c r="F6">
-        <v>0.470652164299409</v>
+        <v>0.5359455132181807</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6604973246820478</v>
+        <v>0.2458008404967487</v>
       </c>
       <c r="N6">
-        <v>0.6038271432085871</v>
+        <v>0.9952459781507166</v>
       </c>
       <c r="O6">
-        <v>1.358407364771381</v>
+        <v>1.763829719546123</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.632718353262618</v>
+        <v>0.538844346213267</v>
       </c>
       <c r="C7">
-        <v>0.3767064501325024</v>
+        <v>0.1302029072919879</v>
       </c>
       <c r="D7">
-        <v>0.02632834852044752</v>
+        <v>0.01109281496717074</v>
       </c>
       <c r="E7">
-        <v>0.1817213776117939</v>
+        <v>0.1160182514466896</v>
       </c>
       <c r="F7">
-        <v>0.4862841142092549</v>
+        <v>0.5384256437198047</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6944941185641298</v>
+        <v>0.2554694242300144</v>
       </c>
       <c r="N7">
-        <v>0.5949607839371254</v>
+        <v>0.9915327826713458</v>
       </c>
       <c r="O7">
-        <v>1.396603733938207</v>
+        <v>1.768115874978065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.976212742346434</v>
+        <v>0.6426264640834063</v>
       </c>
       <c r="C8">
-        <v>0.4449710745522566</v>
+        <v>0.1520947386414093</v>
       </c>
       <c r="D8">
-        <v>0.03061448066420525</v>
+        <v>0.01255055418344142</v>
       </c>
       <c r="E8">
-        <v>0.2180853080184662</v>
+        <v>0.124173364358235</v>
       </c>
       <c r="F8">
-        <v>0.5577714510930889</v>
+        <v>0.5503417257166134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8456587526040664</v>
+        <v>0.298286930748425</v>
       </c>
       <c r="N8">
-        <v>0.5580586593042725</v>
+        <v>0.976140745274833</v>
       </c>
       <c r="O8">
-        <v>1.573329800139334</v>
+        <v>1.790237761937334</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.654289072383619</v>
+        <v>0.8457665818863234</v>
       </c>
       <c r="C9">
-        <v>0.5790158337420337</v>
+        <v>0.1945294744807882</v>
       </c>
       <c r="D9">
-        <v>0.03897722783169399</v>
+        <v>0.01537380291151891</v>
       </c>
       <c r="E9">
-        <v>0.2937872146323954</v>
+        <v>0.1410447569340363</v>
       </c>
       <c r="F9">
-        <v>0.708611525693442</v>
+        <v>0.5772216663375218</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.14782576595649</v>
+        <v>0.3828063636020644</v>
       </c>
       <c r="N9">
-        <v>0.4943081589556257</v>
+        <v>0.9495302693901948</v>
       </c>
       <c r="O9">
-        <v>1.954389844575587</v>
+        <v>1.845219442191166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.157414833872679</v>
+        <v>0.9947626019351787</v>
       </c>
       <c r="C10">
-        <v>0.6779808927664135</v>
+        <v>0.2253989016726052</v>
       </c>
       <c r="D10">
-        <v>0.04510604881308211</v>
+        <v>0.01742562688302485</v>
       </c>
       <c r="E10">
-        <v>0.3530130979174757</v>
+        <v>0.1539949508719047</v>
       </c>
       <c r="F10">
-        <v>0.8276178086040886</v>
+        <v>0.5991339525288311</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.375023440084902</v>
+        <v>0.445256160204039</v>
       </c>
       <c r="N10">
-        <v>0.4533560720881837</v>
+        <v>0.932159991699514</v>
       </c>
       <c r="O10">
-        <v>2.260654446540286</v>
+        <v>1.892761987288566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.387911943898359</v>
+        <v>1.062486596629753</v>
       </c>
       <c r="C11">
-        <v>0.7231996587752008</v>
+        <v>0.2393744685245451</v>
       </c>
       <c r="D11">
-        <v>0.04789354446352689</v>
+        <v>0.01835401909765721</v>
       </c>
       <c r="E11">
-        <v>0.38096885365497</v>
+        <v>0.1600109248144221</v>
       </c>
       <c r="F11">
-        <v>0.8839422520134406</v>
+        <v>0.6095771854180612</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.47992615724489</v>
+        <v>0.4737466196331752</v>
       </c>
       <c r="N11">
-        <v>0.4361569372859933</v>
+        <v>0.9247317984629007</v>
       </c>
       <c r="O11">
-        <v>2.406968139677815</v>
+        <v>1.91595900815463</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.47547675041676</v>
+        <v>1.088123353767685</v>
       </c>
       <c r="C12">
-        <v>0.7403597551821406</v>
+        <v>0.2446568546795334</v>
       </c>
       <c r="D12">
-        <v>0.04894925302919972</v>
+        <v>0.01870484080907175</v>
       </c>
       <c r="E12">
-        <v>0.3917218377417129</v>
+        <v>0.162307279819899</v>
       </c>
       <c r="F12">
-        <v>0.9056224611445032</v>
+        <v>0.6136004393797805</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.519910761870563</v>
+        <v>0.4845471258391427</v>
       </c>
       <c r="N12">
-        <v>0.4298637718851239</v>
+        <v>0.9219871133193749</v>
       </c>
       <c r="O12">
-        <v>2.463494709770487</v>
+        <v>1.924970030011423</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.456604828622005</v>
+        <v>1.082602427868153</v>
       </c>
       <c r="C13">
-        <v>0.7366622503702445</v>
+        <v>0.2435196400683708</v>
       </c>
       <c r="D13">
-        <v>0.0487218770952822</v>
+        <v>0.01862931835459136</v>
       </c>
       <c r="E13">
-        <v>0.3893982180895819</v>
+        <v>0.1618119031397711</v>
       </c>
       <c r="F13">
-        <v>0.9009369950554174</v>
+        <v>0.6127309027531567</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.511287155316637</v>
+        <v>0.4822205187690258</v>
       </c>
       <c r="N13">
-        <v>0.4312091061716927</v>
+        <v>0.9225751950132661</v>
       </c>
       <c r="O13">
-        <v>2.45126891581171</v>
+        <v>1.923019240194549</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.395110045309821</v>
+        <v>1.064595930776704</v>
       </c>
       <c r="C14">
-        <v>0.7246106448961598</v>
+        <v>0.2398092523775119</v>
       </c>
       <c r="D14">
-        <v>0.04798039399461373</v>
+        <v>0.01838289637464641</v>
       </c>
       <c r="E14">
-        <v>0.3818500388125088</v>
+        <v>0.1601994802296076</v>
       </c>
       <c r="F14">
-        <v>0.8857186325581665</v>
+        <v>0.609906803860909</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.48321027278827</v>
+        <v>0.474634947338231</v>
       </c>
       <c r="N14">
-        <v>0.4356347052731522</v>
+        <v>0.9245046239218979</v>
       </c>
       <c r="O14">
-        <v>2.411595458141761</v>
+        <v>1.916695798392539</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.357480722986281</v>
+        <v>1.053565251177986</v>
       </c>
       <c r="C15">
-        <v>0.717233725777362</v>
+        <v>0.237535242794678</v>
       </c>
       <c r="D15">
-        <v>0.04752623997408278</v>
+        <v>0.01823185873121957</v>
       </c>
       <c r="E15">
-        <v>0.3772489338239566</v>
+        <v>0.1592142078853627</v>
       </c>
       <c r="F15">
-        <v>0.8764438470392122</v>
+        <v>0.6081859078227865</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.46604742970554</v>
+        <v>0.4699901019325665</v>
       </c>
       <c r="N15">
-        <v>0.4383745718764516</v>
+        <v>0.9256953409738102</v>
       </c>
       <c r="O15">
-        <v>2.387443861204162</v>
+        <v>1.91285207802045</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.142387901400014</v>
+        <v>0.9903354920342053</v>
       </c>
       <c r="C16">
-        <v>0.6750304213440472</v>
+        <v>0.2244841974924441</v>
       </c>
       <c r="D16">
-        <v>0.04492388704167638</v>
+        <v>0.01736485189015724</v>
       </c>
       <c r="E16">
-        <v>0.3512082689454488</v>
+        <v>0.1536043294146197</v>
       </c>
       <c r="F16">
-        <v>0.8239839725409865</v>
+        <v>0.5984610503702896</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.36820210000316</v>
+        <v>0.4433958892782783</v>
       </c>
       <c r="N16">
-        <v>0.4545100359901753</v>
+        <v>0.9326549809655376</v>
       </c>
       <c r="O16">
-        <v>2.251242841317776</v>
+        <v>1.891277687039491</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.010883353142617</v>
+        <v>0.9515313190295274</v>
       </c>
       <c r="C17">
-        <v>0.6491965766236945</v>
+        <v>0.2164604706176476</v>
       </c>
       <c r="D17">
-        <v>0.04332744094231344</v>
+        <v>0.01683167659071216</v>
       </c>
       <c r="E17">
-        <v>0.3355070895517329</v>
+        <v>0.1501950311698508</v>
       </c>
       <c r="F17">
-        <v>0.7923871187468592</v>
+        <v>0.5926170893340412</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.308599560956765</v>
+        <v>0.4271021592477524</v>
       </c>
       <c r="N17">
-        <v>0.4647846175010812</v>
+        <v>0.9370458749670192</v>
       </c>
       <c r="O17">
-        <v>2.169557864463286</v>
+        <v>1.878445309108656</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.935395088891539</v>
+        <v>0.9292070599042859</v>
       </c>
       <c r="C18">
-        <v>0.6343558404228133</v>
+        <v>0.211839132781904</v>
       </c>
       <c r="D18">
-        <v>0.04240914233807302</v>
+        <v>0.01652453964079825</v>
       </c>
       <c r="E18">
-        <v>0.326570222028991</v>
+        <v>0.1482458291065782</v>
       </c>
       <c r="F18">
-        <v>0.7744170064777904</v>
+        <v>0.5893005104469751</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.27446115565003</v>
+        <v>0.4177381277398666</v>
       </c>
       <c r="N18">
-        <v>0.4708279904614301</v>
+        <v>0.9396159752171585</v>
       </c>
       <c r="O18">
-        <v>2.12322553609701</v>
+        <v>1.871212144837898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.909860393526117</v>
+        <v>0.9216475976369907</v>
       </c>
       <c r="C19">
-        <v>0.6293339146969572</v>
+        <v>0.2102733511798931</v>
       </c>
       <c r="D19">
-        <v>0.04209820466692094</v>
+        <v>0.01642046854230017</v>
       </c>
       <c r="E19">
-        <v>0.3235598954649319</v>
+        <v>0.1475878699328277</v>
       </c>
       <c r="F19">
-        <v>0.7683665261914143</v>
+        <v>0.5881852444154561</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.262926021432037</v>
+        <v>0.4145689474829055</v>
       </c>
       <c r="N19">
-        <v>0.4728967247260201</v>
+        <v>0.9404938196128754</v>
       </c>
       <c r="O19">
-        <v>2.107646609007418</v>
+        <v>1.868788450514728</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.024866417084922</v>
+        <v>0.9556626267054185</v>
       </c>
       <c r="C20">
-        <v>0.6519446927403294</v>
+        <v>0.2173152638379747</v>
       </c>
       <c r="D20">
-        <v>0.04349739055495405</v>
+        <v>0.01688848267323095</v>
       </c>
       <c r="E20">
-        <v>0.337168628856233</v>
+        <v>0.1505567401156895</v>
       </c>
       <c r="F20">
-        <v>0.7957293332332114</v>
+        <v>0.5932345592257775</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.314929251444624</v>
+        <v>0.4288358583875578</v>
       </c>
       <c r="N20">
-        <v>0.463676934065731</v>
+        <v>0.936573842815541</v>
       </c>
       <c r="O20">
-        <v>2.178185219357573</v>
+        <v>1.879796045364458</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.41316454280485</v>
+        <v>1.069885123073732</v>
       </c>
       <c r="C21">
-        <v>0.7281494282351275</v>
+        <v>0.2408993523890217</v>
       </c>
       <c r="D21">
-        <v>0.04819817975178609</v>
+        <v>0.01845529675152591</v>
       </c>
       <c r="E21">
-        <v>0.3840624192104727</v>
+        <v>0.1606725907553965</v>
       </c>
       <c r="F21">
-        <v>0.8901787904544705</v>
+        <v>0.6107344452886707</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.491449755961369</v>
+        <v>0.476862693354775</v>
       </c>
       <c r="N21">
-        <v>0.4343287167843499</v>
+        <v>0.9239360518292301</v>
       </c>
       <c r="O21">
-        <v>2.423217130456152</v>
+        <v>1.918546982150332</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.668600060589881</v>
+        <v>1.14448411212328</v>
       </c>
       <c r="C22">
-        <v>0.7781720589559029</v>
+        <v>0.2562553624709665</v>
       </c>
       <c r="D22">
-        <v>0.05127137942844939</v>
+        <v>0.01947497517326013</v>
       </c>
       <c r="E22">
-        <v>0.4156933929429911</v>
+        <v>0.1673903097265494</v>
       </c>
       <c r="F22">
-        <v>0.9539743138194723</v>
+        <v>0.6225717856963229</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.608352810723005</v>
+        <v>0.5083197299137368</v>
       </c>
       <c r="N22">
-        <v>0.416436358604642</v>
+        <v>0.9160741583198018</v>
       </c>
       <c r="O22">
-        <v>2.58995293936178</v>
+        <v>1.945195510101996</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.532100703512526</v>
+        <v>1.104674295187863</v>
       </c>
       <c r="C23">
-        <v>0.7514511686877938</v>
+        <v>0.2480649063973601</v>
       </c>
       <c r="D23">
-        <v>0.04963098742758376</v>
+        <v>0.01893115670711154</v>
       </c>
       <c r="E23">
-        <v>0.398713909525263</v>
+        <v>0.1637951056823113</v>
       </c>
       <c r="F23">
-        <v>0.9197233218265239</v>
+        <v>0.6162172640932226</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.545805555275564</v>
+        <v>0.4915242176267611</v>
       </c>
       <c r="N23">
-        <v>0.4258629919053121</v>
+        <v>0.9202337802595864</v>
       </c>
       <c r="O23">
-        <v>2.500318933902207</v>
+        <v>1.930851313903275</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.018544317786962</v>
+        <v>0.9537949098552758</v>
       </c>
       <c r="C24">
-        <v>0.6507022342731545</v>
+        <v>0.2169288379442946</v>
       </c>
       <c r="D24">
-        <v>0.04342055784783128</v>
+        <v>0.01686280253274219</v>
       </c>
       <c r="E24">
-        <v>0.3364171683254682</v>
+        <v>0.1503931777315017</v>
       </c>
       <c r="F24">
-        <v>0.7942177123652669</v>
+        <v>0.5929552665679267</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.31206720281844</v>
+        <v>0.4280520422652643</v>
       </c>
       <c r="N24">
-        <v>0.4641772940101205</v>
+        <v>0.9367871061485076</v>
       </c>
       <c r="O24">
-        <v>2.174282840200419</v>
+        <v>1.87918492796652</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.47015362391204</v>
+        <v>0.7908543311913832</v>
       </c>
       <c r="C25">
-        <v>0.5426974310774426</v>
+        <v>0.1831033339350938</v>
       </c>
       <c r="D25">
-        <v>0.03671839087826356</v>
+        <v>0.01461391480474816</v>
       </c>
       <c r="E25">
-        <v>0.2727463891828421</v>
+        <v>0.1363845327678703</v>
       </c>
       <c r="F25">
-        <v>0.6664978309317462</v>
+        <v>0.5695715863173945</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.065300566506245</v>
+        <v>0.359880677049226</v>
       </c>
       <c r="N25">
-        <v>0.5105695713867391</v>
+        <v>0.9563463693887044</v>
       </c>
       <c r="O25">
-        <v>1.847089436525636</v>
+        <v>1.829095709864788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_174/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6707215716073449</v>
+        <v>2.069509956242683</v>
       </c>
       <c r="C2">
-        <v>0.1579930342821001</v>
+        <v>0.4634666333041082</v>
       </c>
       <c r="D2">
-        <v>0.01294316665145345</v>
+        <v>0.03177258665969873</v>
       </c>
       <c r="E2">
-        <v>0.1264417977370229</v>
+        <v>0.2282035592421536</v>
       </c>
       <c r="F2">
-        <v>0.5538072680917523</v>
+        <v>0.5778034741914766</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3099252839110775</v>
+        <v>0.8869464515185612</v>
       </c>
       <c r="N2">
-        <v>0.9722120263364573</v>
+        <v>0.5486211300581374</v>
       </c>
       <c r="O2">
-        <v>1.797013954961699</v>
+        <v>1.623366533136078</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5892113537391026</v>
+        <v>1.799209899029023</v>
       </c>
       <c r="C3">
-        <v>0.1408492153979353</v>
+        <v>0.4098291729382879</v>
       </c>
       <c r="D3">
-        <v>0.01180183988952876</v>
+        <v>0.0284103323222169</v>
       </c>
       <c r="E3">
-        <v>0.1199290195624414</v>
+        <v>0.1991676610746538</v>
       </c>
       <c r="F3">
-        <v>0.5440222806960406</v>
+        <v>0.5204705791923701</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2762130393736228</v>
+        <v>0.7675938786252487</v>
       </c>
       <c r="N3">
-        <v>0.9838772478455269</v>
+        <v>0.5766292956862671</v>
       </c>
       <c r="O3">
-        <v>1.77823950383555</v>
+        <v>1.480729871248087</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5391197371740475</v>
+        <v>1.633627688747566</v>
       </c>
       <c r="C4">
-        <v>0.1302612413019233</v>
+        <v>0.376887549000088</v>
       </c>
       <c r="D4">
-        <v>0.01109670045017097</v>
+        <v>0.02633974364187708</v>
       </c>
       <c r="E4">
-        <v>0.1160393710671315</v>
+        <v>0.1818157130093851</v>
       </c>
       <c r="F4">
-        <v>0.5384551950288596</v>
+        <v>0.4864683258750873</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2555826412098341</v>
+        <v>0.6948924769857356</v>
       </c>
       <c r="N4">
-        <v>0.9914898772992551</v>
+        <v>0.5948582257782142</v>
       </c>
       <c r="O4">
-        <v>1.768167780096036</v>
+        <v>1.39705492350393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5186967731642085</v>
+        <v>1.566218713475223</v>
       </c>
       <c r="C5">
-        <v>0.1259312547789762</v>
+        <v>0.3634567328120113</v>
       </c>
       <c r="D5">
-        <v>0.01080827466421042</v>
+        <v>0.02549429433209127</v>
       </c>
       <c r="E5">
-        <v>0.11448151404214</v>
+        <v>0.1748518158624677</v>
       </c>
       <c r="F5">
-        <v>0.5362971772272331</v>
+        <v>0.472890580577193</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.247192905060615</v>
+        <v>0.6653894650096532</v>
       </c>
       <c r="N5">
-        <v>0.994705237091658</v>
+        <v>0.6025371797662871</v>
       </c>
       <c r="O5">
-        <v>1.764428586231787</v>
+        <v>1.363865589555218</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5153049630227997</v>
+        <v>1.555028739127465</v>
       </c>
       <c r="C6">
-        <v>0.1252113452448214</v>
+        <v>0.3612260084707088</v>
       </c>
       <c r="D6">
-        <v>0.01076031742006123</v>
+        <v>0.02535380408489019</v>
       </c>
       <c r="E6">
-        <v>0.1142244687086773</v>
+        <v>0.173701585611802</v>
       </c>
       <c r="F6">
-        <v>0.5359455132181807</v>
+        <v>0.4706521642994019</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2458008404967487</v>
+        <v>0.6604973246820336</v>
       </c>
       <c r="N6">
-        <v>0.9952459781507166</v>
+        <v>0.6038271432085764</v>
       </c>
       <c r="O6">
-        <v>1.763829719546123</v>
+        <v>1.358407364771352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.538844346213267</v>
+        <v>1.632718353262817</v>
       </c>
       <c r="C7">
-        <v>0.1302029072919879</v>
+        <v>0.3767064501325308</v>
       </c>
       <c r="D7">
-        <v>0.01109281496717074</v>
+        <v>0.02632834852044752</v>
       </c>
       <c r="E7">
-        <v>0.1160182514466896</v>
+        <v>0.1817213776117796</v>
       </c>
       <c r="F7">
-        <v>0.5384256437198047</v>
+        <v>0.4862841142092407</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2554694242300144</v>
+        <v>0.6944941185641298</v>
       </c>
       <c r="N7">
-        <v>0.9915327826713458</v>
+        <v>0.5949607839370579</v>
       </c>
       <c r="O7">
-        <v>1.768115874978065</v>
+        <v>1.396603733938178</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6426264640834063</v>
+        <v>1.976212742346291</v>
       </c>
       <c r="C8">
-        <v>0.1520947386414093</v>
+        <v>0.4449710745522566</v>
       </c>
       <c r="D8">
-        <v>0.01255055418344142</v>
+        <v>0.03061448066392813</v>
       </c>
       <c r="E8">
-        <v>0.124173364358235</v>
+        <v>0.2180853080184946</v>
       </c>
       <c r="F8">
-        <v>0.5503417257166134</v>
+        <v>0.5577714510930676</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.298286930748425</v>
+        <v>0.8456587526040451</v>
       </c>
       <c r="N8">
-        <v>0.976140745274833</v>
+        <v>0.5580586593042725</v>
       </c>
       <c r="O8">
-        <v>1.790237761937334</v>
+        <v>1.573329800139305</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8457665818863234</v>
+        <v>2.654289072383676</v>
       </c>
       <c r="C9">
-        <v>0.1945294744807882</v>
+        <v>0.5790158337422326</v>
       </c>
       <c r="D9">
-        <v>0.01537380291151891</v>
+        <v>0.03897722783164426</v>
       </c>
       <c r="E9">
-        <v>0.1410447569340363</v>
+        <v>0.2937872146323812</v>
       </c>
       <c r="F9">
-        <v>0.5772216663375218</v>
+        <v>0.708611525693442</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3828063636020644</v>
+        <v>1.147825765956505</v>
       </c>
       <c r="N9">
-        <v>0.9495302693901948</v>
+        <v>0.49430815895564</v>
       </c>
       <c r="O9">
-        <v>1.845219442191166</v>
+        <v>1.954389844575644</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9947626019351787</v>
+        <v>3.157414833872565</v>
       </c>
       <c r="C10">
-        <v>0.2253989016726052</v>
+        <v>0.6779808927662145</v>
       </c>
       <c r="D10">
-        <v>0.01742562688302485</v>
+        <v>0.04510604881313895</v>
       </c>
       <c r="E10">
-        <v>0.1539949508719047</v>
+        <v>0.3530130979174828</v>
       </c>
       <c r="F10">
-        <v>0.5991339525288311</v>
+        <v>0.8276178086040744</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.445256160204039</v>
+        <v>1.375023440084902</v>
       </c>
       <c r="N10">
-        <v>0.932159991699514</v>
+        <v>0.4533560720881979</v>
       </c>
       <c r="O10">
-        <v>1.892761987288566</v>
+        <v>2.260654446540286</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.062486596629753</v>
+        <v>3.387911943898189</v>
       </c>
       <c r="C11">
-        <v>0.2393744685245451</v>
+        <v>0.7231996587750871</v>
       </c>
       <c r="D11">
-        <v>0.01835401909765721</v>
+        <v>0.04789354446359084</v>
       </c>
       <c r="E11">
-        <v>0.1600109248144221</v>
+        <v>0.3809688536549984</v>
       </c>
       <c r="F11">
-        <v>0.6095771854180612</v>
+        <v>0.8839422520134264</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4737466196331752</v>
+        <v>1.47992615724489</v>
       </c>
       <c r="N11">
-        <v>0.9247317984629007</v>
+        <v>0.4361569372860501</v>
       </c>
       <c r="O11">
-        <v>1.91595900815463</v>
+        <v>2.406968139677929</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.088123353767685</v>
+        <v>3.47547675041676</v>
       </c>
       <c r="C12">
-        <v>0.2446568546795334</v>
+        <v>0.740359755182169</v>
       </c>
       <c r="D12">
-        <v>0.01870484080907175</v>
+        <v>0.04894925302936315</v>
       </c>
       <c r="E12">
-        <v>0.162307279819899</v>
+        <v>0.3917218377417129</v>
       </c>
       <c r="F12">
-        <v>0.6136004393797805</v>
+        <v>0.9056224611445174</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4845471258391427</v>
+        <v>1.519910761870548</v>
       </c>
       <c r="N12">
-        <v>0.9219871133193749</v>
+        <v>0.4298637718851239</v>
       </c>
       <c r="O12">
-        <v>1.924970030011423</v>
+        <v>2.463494709770487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.082602427868153</v>
+        <v>3.456604828621948</v>
       </c>
       <c r="C13">
-        <v>0.2435196400683708</v>
+        <v>0.7366622503705003</v>
       </c>
       <c r="D13">
-        <v>0.01862931835459136</v>
+        <v>0.04872187709516851</v>
       </c>
       <c r="E13">
-        <v>0.1618119031397711</v>
+        <v>0.3893982180895748</v>
       </c>
       <c r="F13">
-        <v>0.6127309027531567</v>
+        <v>0.9009369950554316</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4822205187690258</v>
+        <v>1.511287155316637</v>
       </c>
       <c r="N13">
-        <v>0.9225751950132661</v>
+        <v>0.4312091061716288</v>
       </c>
       <c r="O13">
-        <v>1.923019240194549</v>
+        <v>2.451268915811625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.064595930776704</v>
+        <v>3.395110045309821</v>
       </c>
       <c r="C14">
-        <v>0.2398092523775119</v>
+        <v>0.7246106448961029</v>
       </c>
       <c r="D14">
-        <v>0.01838289637464641</v>
+        <v>0.04798039399442899</v>
       </c>
       <c r="E14">
-        <v>0.1601994802296076</v>
+        <v>0.3818500388125585</v>
       </c>
       <c r="F14">
-        <v>0.609906803860909</v>
+        <v>0.8857186325581665</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.474634947338231</v>
+        <v>1.483210272788284</v>
       </c>
       <c r="N14">
-        <v>0.9245046239218979</v>
+        <v>0.4356347052731522</v>
       </c>
       <c r="O14">
-        <v>1.916695798392539</v>
+        <v>2.411595458141818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.053565251177986</v>
+        <v>3.357480722986452</v>
       </c>
       <c r="C15">
-        <v>0.237535242794678</v>
+        <v>0.7172337257775894</v>
       </c>
       <c r="D15">
-        <v>0.01823185873121957</v>
+        <v>0.04752623997415384</v>
       </c>
       <c r="E15">
-        <v>0.1592142078853627</v>
+        <v>0.3772489338239779</v>
       </c>
       <c r="F15">
-        <v>0.6081859078227865</v>
+        <v>0.8764438470392264</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4699901019325665</v>
+        <v>1.466047429705583</v>
       </c>
       <c r="N15">
-        <v>0.9256953409738102</v>
+        <v>0.4383745718764018</v>
       </c>
       <c r="O15">
-        <v>1.91285207802045</v>
+        <v>2.387443861204247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9903354920342053</v>
+        <v>3.142387901400184</v>
       </c>
       <c r="C16">
-        <v>0.2244841974924441</v>
+        <v>0.6750304213441893</v>
       </c>
       <c r="D16">
-        <v>0.01736485189015724</v>
+        <v>0.0449238870415698</v>
       </c>
       <c r="E16">
-        <v>0.1536043294146197</v>
+        <v>0.3512082689454417</v>
       </c>
       <c r="F16">
-        <v>0.5984610503702896</v>
+        <v>0.8239839725409865</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4433958892782783</v>
+        <v>1.368202100003145</v>
       </c>
       <c r="N16">
-        <v>0.9326549809655376</v>
+        <v>0.4545100359901539</v>
       </c>
       <c r="O16">
-        <v>1.891277687039491</v>
+        <v>2.251242841317804</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9515313190295274</v>
+        <v>3.010883353142447</v>
       </c>
       <c r="C17">
-        <v>0.2164604706176476</v>
+        <v>0.6491965766236945</v>
       </c>
       <c r="D17">
-        <v>0.01683167659071216</v>
+        <v>0.04332744094205765</v>
       </c>
       <c r="E17">
-        <v>0.1501950311698508</v>
+        <v>0.3355070895516903</v>
       </c>
       <c r="F17">
-        <v>0.5926170893340412</v>
+        <v>0.7923871187468734</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4271021592477524</v>
+        <v>1.308599560956765</v>
       </c>
       <c r="N17">
-        <v>0.9370458749670192</v>
+        <v>0.4647846175010599</v>
       </c>
       <c r="O17">
-        <v>1.878445309108656</v>
+        <v>2.169557864463286</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9292070599042859</v>
+        <v>2.935395088891482</v>
       </c>
       <c r="C18">
-        <v>0.211839132781904</v>
+        <v>0.6343558404227281</v>
       </c>
       <c r="D18">
-        <v>0.01652453964079825</v>
+        <v>0.04240914233819382</v>
       </c>
       <c r="E18">
-        <v>0.1482458291065782</v>
+        <v>0.3265702220289555</v>
       </c>
       <c r="F18">
-        <v>0.5893005104469751</v>
+        <v>0.7744170064778046</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4177381277398666</v>
+        <v>1.274461155650016</v>
       </c>
       <c r="N18">
-        <v>0.9396159752171585</v>
+        <v>0.4708279904613804</v>
       </c>
       <c r="O18">
-        <v>1.871212144837898</v>
+        <v>2.123225536097038</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9216475976369907</v>
+        <v>2.909860393526117</v>
       </c>
       <c r="C19">
-        <v>0.2102733511798931</v>
+        <v>0.6293339146969572</v>
       </c>
       <c r="D19">
-        <v>0.01642046854230017</v>
+        <v>0.04209820466692094</v>
       </c>
       <c r="E19">
-        <v>0.1475878699328277</v>
+        <v>0.3235598954649319</v>
       </c>
       <c r="F19">
-        <v>0.5881852444154561</v>
+        <v>0.7683665261914143</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4145689474829055</v>
+        <v>1.262926021432037</v>
       </c>
       <c r="N19">
-        <v>0.9404938196128754</v>
+        <v>0.472896724726013</v>
       </c>
       <c r="O19">
-        <v>1.868788450514728</v>
+        <v>2.107646609007418</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9556626267054185</v>
+        <v>3.024866417085036</v>
       </c>
       <c r="C20">
-        <v>0.2173152638379747</v>
+        <v>0.6519446927404715</v>
       </c>
       <c r="D20">
-        <v>0.01688848267323095</v>
+        <v>0.04349739055466983</v>
       </c>
       <c r="E20">
-        <v>0.1505567401156895</v>
+        <v>0.3371686288561975</v>
       </c>
       <c r="F20">
-        <v>0.5932345592257775</v>
+        <v>0.795729333233183</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4288358583875578</v>
+        <v>1.314929251444624</v>
       </c>
       <c r="N20">
-        <v>0.936573842815541</v>
+        <v>0.4636769340657239</v>
       </c>
       <c r="O20">
-        <v>1.879796045364458</v>
+        <v>2.178185219357601</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.069885123073732</v>
+        <v>3.413164542804907</v>
       </c>
       <c r="C21">
-        <v>0.2408993523890217</v>
+        <v>0.7281494282350991</v>
       </c>
       <c r="D21">
-        <v>0.01845529675152591</v>
+        <v>0.04819817975190688</v>
       </c>
       <c r="E21">
-        <v>0.1606725907553965</v>
+        <v>0.3840624192104514</v>
       </c>
       <c r="F21">
-        <v>0.6107344452886707</v>
+        <v>0.8901787904544562</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.476862693354775</v>
+        <v>1.491449755961369</v>
       </c>
       <c r="N21">
-        <v>0.9239360518292301</v>
+        <v>0.4343287167843428</v>
       </c>
       <c r="O21">
-        <v>1.918546982150332</v>
+        <v>2.423217130456123</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.14448411212328</v>
+        <v>3.668600060589995</v>
       </c>
       <c r="C22">
-        <v>0.2562553624709665</v>
+        <v>0.7781720589559598</v>
       </c>
       <c r="D22">
-        <v>0.01947497517326013</v>
+        <v>0.05127137942839965</v>
       </c>
       <c r="E22">
-        <v>0.1673903097265494</v>
+        <v>0.4156933929429769</v>
       </c>
       <c r="F22">
-        <v>0.6225717856963229</v>
+        <v>0.9539743138194723</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5083197299137368</v>
+        <v>1.608352810723034</v>
       </c>
       <c r="N22">
-        <v>0.9160741583198018</v>
+        <v>0.4164363586046491</v>
       </c>
       <c r="O22">
-        <v>1.945195510101996</v>
+        <v>2.58995293936178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.104674295187863</v>
+        <v>3.53210070351264</v>
       </c>
       <c r="C23">
-        <v>0.2480649063973601</v>
+        <v>0.7514511686880496</v>
       </c>
       <c r="D23">
-        <v>0.01893115670711154</v>
+        <v>0.04963098742771166</v>
       </c>
       <c r="E23">
-        <v>0.1637951056823113</v>
+        <v>0.3987139095252488</v>
       </c>
       <c r="F23">
-        <v>0.6162172640932226</v>
+        <v>0.9197233218265097</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4915242176267611</v>
+        <v>1.54580555527555</v>
       </c>
       <c r="N23">
-        <v>0.9202337802595864</v>
+        <v>0.4258629919053263</v>
       </c>
       <c r="O23">
-        <v>1.930851313903275</v>
+        <v>2.500318933902122</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9537949098552758</v>
+        <v>3.018544317787189</v>
       </c>
       <c r="C24">
-        <v>0.2169288379442946</v>
+        <v>0.650702234273183</v>
       </c>
       <c r="D24">
-        <v>0.01686280253274219</v>
+        <v>0.04342055784776733</v>
       </c>
       <c r="E24">
-        <v>0.1503931777315017</v>
+        <v>0.3364171683254682</v>
       </c>
       <c r="F24">
-        <v>0.5929552665679267</v>
+        <v>0.7942177123652669</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4280520422652643</v>
+        <v>1.312067202818412</v>
       </c>
       <c r="N24">
-        <v>0.9367871061485076</v>
+        <v>0.4641772940101134</v>
       </c>
       <c r="O24">
-        <v>1.87918492796652</v>
+        <v>2.174282840200391</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7908543311913832</v>
+        <v>2.470153623911983</v>
       </c>
       <c r="C25">
-        <v>0.1831033339350938</v>
+        <v>0.54269743107767</v>
       </c>
       <c r="D25">
-        <v>0.01461391480474816</v>
+        <v>0.03671839087813566</v>
       </c>
       <c r="E25">
-        <v>0.1363845327678703</v>
+        <v>0.2727463891828279</v>
       </c>
       <c r="F25">
-        <v>0.5695715863173945</v>
+        <v>0.6664978309317462</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.359880677049226</v>
+        <v>1.065300566506238</v>
       </c>
       <c r="N25">
-        <v>0.9563463693887044</v>
+        <v>0.5105695713866751</v>
       </c>
       <c r="O25">
-        <v>1.829095709864788</v>
+        <v>1.847089436525664</v>
       </c>
     </row>
   </sheetData>
